--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksssk\OneDrive\바탕 화면\code\code\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABC4616-63E9-468D-A9C7-21A5C792164D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019B6650-8232-4DCD-8E2F-FC33B4070167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EE5D162-7845-461C-B76F-1A3D6E82D811}"/>
   </bookViews>
@@ -492,12 +492,13 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.375" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,12 +533,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -557,17 +558,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -607,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -617,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,7 +643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
@@ -657,7 +658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>12</v>
       </c>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksssk\OneDrive\바탕 화면\code\code\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019B6650-8232-4DCD-8E2F-FC33B4070167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1790274-C140-4789-8101-2C4F546CBBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EE5D162-7845-461C-B76F-1A3D6E82D811}"/>
   </bookViews>
@@ -25,73 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
-  <si>
-    <t xml:space="preserve">NG(영-有)-NationalGeographic6월    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(한)-NationalGeographic6월 BEST 20   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(한)-NationalGeographic6월    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(영-有)-NationalGeographic6월(5권)    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NationalGeographic스페셜에디션II 은자의나라   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">은자의나라    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">보기드문 사진들    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NationalGeographic스페셜에디션I 눈부시게 아름다운 사진들(VIP) Esquire6월  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NationalGeographic스페셜에디션I NationalGeographic스페셜에디션II 은자의나라  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(영-有)-NationalGeographic6월                BEST 20    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NationalGeographic스페셜에디션I    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(영-有)-NationalGeographic6월 은자의나라   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">눈부시게 아름다운 사진들 보기드문 사진들   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NationalGeographic스페셜에디션I 은자의나라   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(영)-NationalGeographic6월    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NationalGeographic스페셜에디션II    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DM만 있음    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">마우스패드    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(한)-NationalGeographic6월 NG(영)-NationalGeographic5,6월   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(한)-NationalGeographic5월 NG(영-有)-NationalGeographic5월 은자의나라  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(한)-NationalGeographic6월 NG(영-有)-NationalGeographic6월 BEST 20  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NG(한)-NationalGeographic6월 NG(영-有)-NationalGeographic6월 BEST 20 은자의나라 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>item</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -110,6 +44,106 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(ENG)-NationalGeographic6   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(KOR)-NationalGeographic6 BEST 20   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(ENG)-NationalGeographic6(5ea)    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NationalGeographicSpecialEdition II   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>the kingdom of hermitage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(KOR)-NationalGeographic6    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rare photographs   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NationalGeographicSpecialEditionI spectacularly beautiful photographs(VIP) Esquire </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NationalGeographicSpecialEditionI NationalGeographicSpecialEditionII the kingdom of hermitage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the kingdom of hermitage </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(KOR)-NationalGeographic6  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NationalGeographicSpecialEdition I</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG(ENG)-NationalGeographic6 the kingdom of hermitage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NG(KOR)-NationalGeographic6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NationalGeographicSpecialEdition I  NationalGeographicSpecialEdition II  the kingdom of hermitage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Only DM  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MousePad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">spectacularly beautiful photographs  rare photographs </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(ENG)-NationalGeographic6   BEST 20    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(KOR)-NationalGeographic6 NG(ENG)-NationalGeographic5,6   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(KOR)-NationalGeographic5 NG(ENG)-NationalGeographic5 the kingdom of hermitage </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(ENG)-NationalGeographic6    </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(KOR)-NationalGeographic6 NG(ENG)-NationalGeographic6 BEST 20  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(ENG)-NationalGeographic6 the kingdom of hermitage   </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG(KOR)-NationalGeographic6 NG(ENG)-NationalGeographic6 BEST 20 the kingdom of hermitage </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -491,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B597F6C-B045-4053-9F95-C1DB0EA37501}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -503,244 +537,244 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="33" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
